--- a/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H2">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I2">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J2">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N2">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O2">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P2">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q2">
-        <v>235.5852528733471</v>
+        <v>265.5810677696443</v>
       </c>
       <c r="R2">
-        <v>235.5852528733471</v>
+        <v>2390.229609926799</v>
       </c>
       <c r="S2">
-        <v>0.01577619242748111</v>
+        <v>0.01588522472933548</v>
       </c>
       <c r="T2">
-        <v>0.01577619242748111</v>
+        <v>0.01721458583699878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H3">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I3">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J3">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N3">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O3">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P3">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q3">
-        <v>391.6539874281595</v>
+        <v>444.7431342580853</v>
       </c>
       <c r="R3">
-        <v>391.6539874281595</v>
+        <v>4002.688208322767</v>
       </c>
       <c r="S3">
-        <v>0.02622748493505532</v>
+        <v>0.02660146182048829</v>
       </c>
       <c r="T3">
-        <v>0.02622748493505532</v>
+        <v>0.02882761532814639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H4">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I4">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J4">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N4">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O4">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P4">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q4">
-        <v>429.0333953442271</v>
+        <v>491.6280810845257</v>
       </c>
       <c r="R4">
-        <v>429.0333953442271</v>
+        <v>4424.652729760731</v>
       </c>
       <c r="S4">
-        <v>0.0287306328397598</v>
+        <v>0.02940579543890324</v>
       </c>
       <c r="T4">
-        <v>0.0287306328397598</v>
+        <v>0.03186663067809194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H5">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I5">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J5">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N5">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O5">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P5">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q5">
-        <v>496.8355824580883</v>
+        <v>526.8984172998563</v>
       </c>
       <c r="R5">
-        <v>496.8355824580883</v>
+        <v>4742.085755698707</v>
       </c>
       <c r="S5">
-        <v>0.03327107133438583</v>
+        <v>0.03151542328912978</v>
       </c>
       <c r="T5">
-        <v>0.03327107133438583</v>
+        <v>0.03415280354190937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H6">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I6">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J6">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N6">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O6">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P6">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q6">
-        <v>229.8154804988818</v>
+        <v>247.2993980852965</v>
       </c>
       <c r="R6">
-        <v>229.8154804988818</v>
+        <v>1483.796388511779</v>
       </c>
       <c r="S6">
-        <v>0.01538981408617099</v>
+        <v>0.01479174154620725</v>
       </c>
       <c r="T6">
-        <v>0.01538981408617099</v>
+        <v>0.01068639606361795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H7">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J7">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N7">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O7">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P7">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q7">
-        <v>390.8830292518189</v>
+        <v>448.6954892741795</v>
       </c>
       <c r="R7">
-        <v>390.8830292518189</v>
+        <v>4038.259403467616</v>
       </c>
       <c r="S7">
-        <v>0.0261758569812885</v>
+        <v>0.02683786439303623</v>
       </c>
       <c r="T7">
-        <v>0.0261758569812885</v>
+        <v>0.02908380134040333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H8">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J8">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N8">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O8">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P8">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q8">
-        <v>649.8322588416682</v>
+        <v>751.3872878933901</v>
       </c>
       <c r="R8">
-        <v>649.8322588416682</v>
+        <v>6762.485591040511</v>
       </c>
       <c r="S8">
-        <v>0.04351664051986469</v>
+        <v>0.04494279666540549</v>
       </c>
       <c r="T8">
-        <v>0.04351664051986469</v>
+        <v>0.04870385179522544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H9">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J9">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N9">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O9">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P9">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q9">
-        <v>711.8521689152709</v>
+        <v>830.5987480044338</v>
       </c>
       <c r="R9">
-        <v>711.8521689152709</v>
+        <v>7475.388732039904</v>
       </c>
       <c r="S9">
-        <v>0.04766986328624153</v>
+        <v>0.04968067898348594</v>
       </c>
       <c r="T9">
-        <v>0.04766986328624153</v>
+        <v>0.05383822560736139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H10">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J10">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N10">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O10">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P10">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q10">
-        <v>824.3495513520774</v>
+        <v>890.187486380654</v>
       </c>
       <c r="R10">
-        <v>824.3495513520774</v>
+        <v>8011.687377425887</v>
       </c>
       <c r="S10">
-        <v>0.05520335840643537</v>
+        <v>0.05324486564932489</v>
       </c>
       <c r="T10">
-        <v>0.05520335840643537</v>
+        <v>0.05770068259765276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H11">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J11">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N11">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O11">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P11">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q11">
-        <v>381.3098234746435</v>
+        <v>417.8088647393227</v>
       </c>
       <c r="R11">
-        <v>381.3098234746435</v>
+        <v>2506.853188435936</v>
       </c>
       <c r="S11">
-        <v>0.02553477807398615</v>
+        <v>0.02499043989102929</v>
       </c>
       <c r="T11">
-        <v>0.02553477807398615</v>
+        <v>0.0180545162748637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H12">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I12">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J12">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N12">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O12">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P12">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q12">
-        <v>519.0285838173394</v>
+        <v>622.9296029085555</v>
       </c>
       <c r="R12">
-        <v>519.0285838173394</v>
+        <v>5606.366426177</v>
       </c>
       <c r="S12">
-        <v>0.03475724695750568</v>
+        <v>0.03725934538880995</v>
       </c>
       <c r="T12">
-        <v>0.03475724695750568</v>
+        <v>0.04037740795958416</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H13">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I13">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J13">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N13">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O13">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P13">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q13">
-        <v>862.8707101226609</v>
+        <v>1043.160441918222</v>
       </c>
       <c r="R13">
-        <v>862.8707101226609</v>
+        <v>9388.443977263998</v>
       </c>
       <c r="S13">
-        <v>0.05778296475225782</v>
+        <v>0.06239465104868407</v>
       </c>
       <c r="T13">
-        <v>0.05778296475225782</v>
+        <v>0.06761617128800231</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H14">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I14">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J14">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N14">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O14">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P14">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q14">
-        <v>945.2229835267918</v>
+        <v>1153.130710334778</v>
       </c>
       <c r="R14">
-        <v>945.2229835267918</v>
+        <v>10378.176393013</v>
       </c>
       <c r="S14">
-        <v>0.0632977637314731</v>
+        <v>0.06897231278493982</v>
       </c>
       <c r="T14">
-        <v>0.0632977637314731</v>
+        <v>0.07474428716264964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H15">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I15">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J15">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N15">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O15">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P15">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q15">
-        <v>1094.60106525394</v>
+        <v>1235.858506851222</v>
       </c>
       <c r="R15">
-        <v>1094.60106525394</v>
+        <v>11122.726561661</v>
       </c>
       <c r="S15">
-        <v>0.07330101025489798</v>
+        <v>0.07392051805447469</v>
       </c>
       <c r="T15">
-        <v>0.07330101025489798</v>
+        <v>0.08010658488288223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H16">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I16">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J16">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N16">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O16">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P16">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q16">
-        <v>506.3169359194249</v>
+        <v>580.0493127861666</v>
       </c>
       <c r="R16">
-        <v>506.3169359194249</v>
+        <v>3480.295876717</v>
       </c>
       <c r="S16">
-        <v>0.03390599926325506</v>
+        <v>0.03469454266859471</v>
       </c>
       <c r="T16">
-        <v>0.03390599926325506</v>
+        <v>0.02506531249511738</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H17">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I17">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J17">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N17">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O17">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P17">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q17">
-        <v>606.1365936780368</v>
+        <v>659.906676165571</v>
       </c>
       <c r="R17">
-        <v>606.1365936780368</v>
+        <v>5939.160085490139</v>
       </c>
       <c r="S17">
-        <v>0.04059051839014533</v>
+        <v>0.03947105845801965</v>
       </c>
       <c r="T17">
-        <v>0.04059051839014533</v>
+        <v>0.04277420908298351</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H18">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I18">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J18">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N18">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O18">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P18">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q18">
-        <v>1007.685374804642</v>
+        <v>1105.082398909072</v>
       </c>
       <c r="R18">
-        <v>1007.685374804642</v>
+        <v>9945.741590181648</v>
       </c>
       <c r="S18">
-        <v>0.0674806176761118</v>
+        <v>0.06609839473320406</v>
       </c>
       <c r="T18">
-        <v>0.0674806176761118</v>
+        <v>0.07162986417946438</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H19">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I19">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J19">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N19">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O19">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P19">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q19">
-        <v>1103.8587418198</v>
+        <v>1221.580497520799</v>
       </c>
       <c r="R19">
-        <v>1103.8587418198</v>
+        <v>10994.22447768719</v>
       </c>
       <c r="S19">
-        <v>0.07392095944591509</v>
+        <v>0.07306650617476479</v>
       </c>
       <c r="T19">
-        <v>0.07392095944591509</v>
+        <v>0.07918110469235438</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H20">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I20">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J20">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N20">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O20">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P20">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q20">
-        <v>1278.306786592836</v>
+        <v>1309.219012323703</v>
       </c>
       <c r="R20">
-        <v>1278.306786592836</v>
+        <v>11782.97111091333</v>
       </c>
       <c r="S20">
-        <v>0.08560304009133149</v>
+        <v>0.07830843668690818</v>
       </c>
       <c r="T20">
-        <v>0.08560304009133149</v>
+        <v>0.08486170816447476</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H21">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I21">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J21">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N21">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O21">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P21">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q21">
-        <v>591.2915635638802</v>
+        <v>614.4810139469865</v>
       </c>
       <c r="R21">
-        <v>591.2915635638802</v>
+        <v>3686.886083681919</v>
       </c>
       <c r="S21">
-        <v>0.03959640670948511</v>
+        <v>0.03675400916350072</v>
       </c>
       <c r="T21">
-        <v>0.03959640670948511</v>
+        <v>0.02655318831931062</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H22">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I22">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J22">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N22">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O22">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P22">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q22">
-        <v>221.5217552468685</v>
+        <v>249.7726234042112</v>
       </c>
       <c r="R22">
-        <v>221.5217552468685</v>
+        <v>1498.635740425267</v>
       </c>
       <c r="S22">
-        <v>0.01483441681948909</v>
+        <v>0.014939672798714</v>
       </c>
       <c r="T22">
-        <v>0.01483441681948909</v>
+        <v>0.01079327002092283</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H23">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I23">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J23">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N23">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O23">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P23">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q23">
-        <v>368.2738103779519</v>
+        <v>418.2702491466906</v>
       </c>
       <c r="R23">
-        <v>368.2738103779519</v>
+        <v>2509.621494880144</v>
       </c>
       <c r="S23">
-        <v>0.0246618089530746</v>
+        <v>0.02501803671884236</v>
       </c>
       <c r="T23">
-        <v>0.0246618089530746</v>
+        <v>0.0180744537941334</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H24">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I24">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J24">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N24">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O24">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P24">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q24">
-        <v>403.4218171002045</v>
+        <v>462.3644169477039</v>
       </c>
       <c r="R24">
-        <v>403.4218171002045</v>
+        <v>2774.186501686223</v>
       </c>
       <c r="S24">
-        <v>0.0270155289365184</v>
+        <v>0.02765544521582027</v>
       </c>
       <c r="T24">
-        <v>0.0270155289365184</v>
+        <v>0.01997986781804757</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H25">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I25">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J25">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N25">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O25">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P25">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q25">
-        <v>467.1764847453557</v>
+        <v>495.5353220835051</v>
       </c>
       <c r="R25">
-        <v>467.1764847453557</v>
+        <v>2973.211932501031</v>
       </c>
       <c r="S25">
-        <v>0.03128492140761989</v>
+        <v>0.02963949960261379</v>
       </c>
       <c r="T25">
-        <v>0.03128492140761989</v>
+        <v>0.0214132616427572</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H26">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I26">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J26">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N26">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O26">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P26">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q26">
-        <v>216.0964152131544</v>
+        <v>232.5791516119018</v>
       </c>
       <c r="R26">
-        <v>216.0964152131544</v>
+        <v>930.3166064476071</v>
       </c>
       <c r="S26">
-        <v>0.0144711037202502</v>
+        <v>0.01391127809576318</v>
       </c>
       <c r="T26">
-        <v>0.0144711037202502</v>
+        <v>0.006700199433044513</v>
       </c>
     </row>
   </sheetData>
